--- a/pred_ohlcv/54_21/2020-01-11 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 DASH ohlcv.xlsx
@@ -1744,7 +1744,7 @@
         <v>29.98991392000003</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>73.52761392000005</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>109.2892139200001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>105.20781392</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>186.03511163</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>186.03511163</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>179.53641163</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>180.50571163</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>156.98071163</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>160.98071163</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>178.08961163</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>144.90651163</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>164.65081163</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>148.2236116300001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>165.25001163</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>165.23081163</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>169.25581163</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>55.64481163000004</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>57.58021163000004</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>60.51421163000003</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>61.94451163000004</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>64.55641163000004</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>83.01191163000004</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>90.01191163000004</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>77.48821163000005</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>80.39091163000005</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>88.46101163000004</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>88.46101163000004</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>110.51831163</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>115.97241163</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>139.30451163</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-11 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 DASH ohlcv.xlsx
@@ -3070,7 +3070,7 @@
         <v>73.52761392000005</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>109.2892139200001</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>105.20781392</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>186.03511163</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>186.03511163</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>179.53641163</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>180.50571163</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>156.98071163</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>160.98071163</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>178.08961163</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>144.90651163</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>164.65081163</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>148.2236116300001</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>165.25001163</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>165.23081163</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>169.25581163</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>55.64481163000004</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>57.58021163000004</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>60.51421163000003</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>61.94451163000004</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>64.55641163000004</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>83.01191163000004</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>90.01191163000004</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>91.53691163000005</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>77.48821163000005</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>80.39091163000005</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>88.46101163000004</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>88.46101163000004</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>110.51831163</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>115.97241163</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>139.30451163</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
